--- a/ApolloQA/Data/RatingManual/GA/VA00053.BaseRateFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00053.BaseRateFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.BaseRateFactors" sheetId="1" r:id="R4e12bab3fb724d34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.BaseRateFactors" sheetId="1" r:id="Rd66c77a1ccff4af6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,34 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Base Rate Factor</x:v>
+        <x:v>Covered Autos</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Covered Autos Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>154.96</x:v>
+        <x:v>All Owned Autos</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Any Auto</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Scheduled Autos</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
